--- a/biology/Botanique/Beurré_Dumortier/Beurré_Dumortier.xlsx
+++ b/biology/Botanique/Beurré_Dumortier/Beurré_Dumortier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Dumortier</t>
+          <t>Beurré_Dumortier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ’Beurré Dumortier est une variété de poire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ’Beurré Dumortier est une variété de poire.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Dumortier</t>
+          <t>Beurré_Dumortier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Du Montier.
 Dumoustier.
-Demoustier[2].
+Demoustier.
 Beurré Curtet, à tort, plutôt synonyme de Beurré Quetelet.</t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Dumortier</t>
+          <t>Beurré_Dumortier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle fut obtenue par Van Mons vers 1818[3]. André Leroy dit que : « C'est à tort qu'on a cru le Beurré Quételet identique avec le Beurré Dumortier ; ces deux poires ne se ressemblent nullement et d'ailleurs, on le sait aujourd'hui, Beurré Quételet est synonyme de Beurré Curtet ... »
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle fut obtenue par Van Mons vers 1818. André Leroy dit que : « C'est à tort qu'on a cru le Beurré Quételet identique avec le Beurré Dumortier ; ces deux poires ne se ressemblent nullement et d'ailleurs, on le sait aujourd'hui, Beurré Quételet est synonyme de Beurré Curtet ... »
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Dumortier</t>
+          <t>Beurré_Dumortier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un fruit d'amateur[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un fruit d'amateur.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Dumortier</t>
+          <t>Beurré_Dumortier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'une grosseur au-dessus de la moyenne[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une grosseur au-dessus de la moyenne.
 </t>
         </is>
       </c>
